--- a/user story & sprints/User Story 1.3.xlsx
+++ b/user story & sprints/User Story 1.3.xlsx
@@ -380,8 +380,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,7 +450,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -463,6 +465,7 @@
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -476,6 +479,7 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -807,7 +811,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1525,7 +1529,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1570,9 +1574,7 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>4</v>
-      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
@@ -1592,9 +1594,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>4</v>
-      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
@@ -1610,9 +1610,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <v>4</v>
-      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
@@ -1628,9 +1626,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>4</v>
-      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1646,9 +1642,7 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
@@ -1664,9 +1658,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
@@ -1682,9 +1674,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
@@ -1700,9 +1690,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
-        <v>5</v>
-      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1720,9 +1708,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
-        <v>5</v>
-      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
@@ -1738,9 +1724,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
-        <v>5</v>
-      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1756,9 +1740,7 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
-        <v>5</v>
-      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1774,9 +1756,7 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
-        <v>5</v>
-      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
@@ -1792,9 +1772,7 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
-        <v>5</v>
-      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -1810,9 +1788,7 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
-        <v>5</v>
-      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
         <v>72</v>
       </c>
@@ -1828,9 +1804,7 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
-        <v>6</v>
-      </c>
+      <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
@@ -1848,9 +1822,7 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
-        <v>6</v>
-      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1866,9 +1838,7 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
-        <v>6</v>
-      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1884,9 +1854,7 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
-        <v>6</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
@@ -1902,9 +1870,7 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
-        <v>6</v>
-      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
         <v>23</v>
       </c>
@@ -1920,9 +1886,7 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
-        <v>6</v>
-      </c>
+      <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
         <v>24</v>
       </c>
@@ -1938,9 +1902,7 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
-        <v>6</v>
-      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
         <v>73</v>
       </c>
@@ -1956,9 +1918,7 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
-        <v>7</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
         <v>16</v>
       </c>
@@ -1976,9 +1936,7 @@
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
-        <v>7</v>
-      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
@@ -1994,9 +1952,7 @@
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
-        <v>7</v>
-      </c>
+      <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
         <v>21</v>
       </c>
@@ -2012,9 +1968,7 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
-        <v>7</v>
-      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
@@ -2030,9 +1984,7 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
-        <v>7</v>
-      </c>
+      <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
         <v>23</v>
       </c>
@@ -2048,9 +2000,7 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
-        <v>7</v>
-      </c>
+      <c r="B28" s="11"/>
       <c r="C28" s="11" t="s">
         <v>24</v>
       </c>
@@ -2066,9 +2016,7 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="11">
-        <v>7</v>
-      </c>
+      <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
         <v>74</v>
       </c>
@@ -2084,9 +2032,7 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
-        <v>8</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
         <v>16</v>
       </c>
@@ -2104,9 +2050,7 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
-        <v>8</v>
-      </c>
+      <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
         <v>19</v>
       </c>
@@ -2122,9 +2066,7 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
-        <v>8</v>
-      </c>
+      <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
         <v>21</v>
       </c>
@@ -2140,9 +2082,7 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
-        <v>8</v>
-      </c>
+      <c r="B33" s="11"/>
       <c r="C33" s="11" t="s">
         <v>22</v>
       </c>
@@ -2158,9 +2098,7 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="11">
-        <v>8</v>
-      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
         <v>23</v>
       </c>
@@ -2176,9 +2114,7 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="11">
-        <v>8</v>
-      </c>
+      <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
         <v>24</v>
       </c>
@@ -2194,9 +2130,7 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="11">
-        <v>8</v>
-      </c>
+      <c r="B36" s="11"/>
       <c r="C36" s="11" t="s">
         <v>75</v>
       </c>
@@ -2212,9 +2146,7 @@
       <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="11">
-        <v>9</v>
-      </c>
+      <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
@@ -2232,9 +2164,7 @@
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="11">
-        <v>9</v>
-      </c>
+      <c r="B38" s="11"/>
       <c r="C38" s="11" t="s">
         <v>19</v>
       </c>
@@ -2250,9 +2180,7 @@
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="11">
-        <v>9</v>
-      </c>
+      <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
         <v>21</v>
       </c>
@@ -2268,9 +2196,7 @@
       <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="11">
-        <v>9</v>
-      </c>
+      <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
         <v>22</v>
       </c>
@@ -2286,9 +2212,7 @@
       <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="11">
-        <v>9</v>
-      </c>
+      <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
         <v>23</v>
       </c>
@@ -2304,9 +2228,7 @@
       <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="11">
-        <v>9</v>
-      </c>
+      <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
         <v>24</v>
       </c>
@@ -2322,9 +2244,7 @@
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="11">
-        <v>9</v>
-      </c>
+      <c r="B43" s="11"/>
       <c r="C43" s="11" t="s">
         <v>76</v>
       </c>
@@ -2340,9 +2260,7 @@
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="11">
-        <v>10</v>
-      </c>
+      <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
         <v>16</v>
       </c>
@@ -2360,9 +2278,7 @@
       <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="11">
-        <v>10</v>
-      </c>
+      <c r="B45" s="11"/>
       <c r="C45" s="11" t="s">
         <v>19</v>
       </c>
@@ -2378,9 +2294,7 @@
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="11">
-        <v>10</v>
-      </c>
+      <c r="B46" s="11"/>
       <c r="C46" s="11" t="s">
         <v>21</v>
       </c>
@@ -2396,9 +2310,7 @@
       <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="11">
-        <v>10</v>
-      </c>
+      <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
         <v>22</v>
       </c>
@@ -2414,9 +2326,7 @@
       <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="11">
-        <v>10</v>
-      </c>
+      <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
         <v>23</v>
       </c>
@@ -2432,9 +2342,7 @@
       <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="11">
-        <v>10</v>
-      </c>
+      <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
         <v>24</v>
       </c>
@@ -2450,9 +2358,7 @@
       <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="11">
-        <v>10</v>
-      </c>
+      <c r="B50" s="11"/>
       <c r="C50" s="13" t="s">
         <v>77</v>
       </c>
@@ -2468,9 +2374,7 @@
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="11">
-        <v>11</v>
-      </c>
+      <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
         <v>16</v>
       </c>
@@ -2488,9 +2392,7 @@
       <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="11">
-        <v>11</v>
-      </c>
+      <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
         <v>19</v>
       </c>
@@ -2506,9 +2408,7 @@
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="11">
-        <v>11</v>
-      </c>
+      <c r="B53" s="11"/>
       <c r="C53" s="11" t="s">
         <v>21</v>
       </c>
@@ -2524,9 +2424,7 @@
       <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="11">
-        <v>11</v>
-      </c>
+      <c r="B54" s="11"/>
       <c r="C54" s="11" t="s">
         <v>22</v>
       </c>
@@ -2542,9 +2440,7 @@
       <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="11">
-        <v>11</v>
-      </c>
+      <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
         <v>23</v>
       </c>
@@ -2560,9 +2456,7 @@
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="11">
-        <v>11</v>
-      </c>
+      <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
         <v>24</v>
       </c>
@@ -2578,9 +2472,7 @@
       <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="11">
-        <v>11</v>
-      </c>
+      <c r="B57" s="11"/>
       <c r="C57" s="13" t="s">
         <v>78</v>
       </c>
@@ -2596,9 +2488,7 @@
       <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="11">
-        <v>12</v>
-      </c>
+      <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
         <v>16</v>
       </c>
@@ -2616,9 +2506,7 @@
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="11">
-        <v>12</v>
-      </c>
+      <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
         <v>19</v>
       </c>
@@ -2634,9 +2522,7 @@
       <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="11">
-        <v>12</v>
-      </c>
+      <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
         <v>21</v>
       </c>
@@ -2652,9 +2538,7 @@
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="11">
-        <v>12</v>
-      </c>
+      <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
         <v>22</v>
       </c>
@@ -2670,9 +2554,7 @@
       <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="11">
-        <v>12</v>
-      </c>
+      <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
         <v>23</v>
       </c>
@@ -2688,9 +2570,7 @@
       <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="11">
-        <v>12</v>
-      </c>
+      <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
         <v>24</v>
       </c>
@@ -2706,9 +2586,7 @@
       <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="11">
-        <v>12</v>
-      </c>
+      <c r="B64" s="11"/>
       <c r="C64" s="13" t="s">
         <v>79</v>
       </c>
@@ -2724,9 +2602,7 @@
       <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="11">
-        <v>13</v>
-      </c>
+      <c r="B65" s="11"/>
       <c r="C65" s="11" t="s">
         <v>16</v>
       </c>
@@ -2744,9 +2620,7 @@
       <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="11">
-        <v>13</v>
-      </c>
+      <c r="B66" s="11"/>
       <c r="C66" s="11" t="s">
         <v>19</v>
       </c>
@@ -2762,9 +2636,7 @@
       <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="11">
-        <v>13</v>
-      </c>
+      <c r="B67" s="11"/>
       <c r="C67" s="11" t="s">
         <v>21</v>
       </c>
@@ -2780,9 +2652,7 @@
       <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="11">
-        <v>13</v>
-      </c>
+      <c r="B68" s="11"/>
       <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
@@ -2798,9 +2668,7 @@
       <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="11">
-        <v>13</v>
-      </c>
+      <c r="B69" s="11"/>
       <c r="C69" s="11" t="s">
         <v>23</v>
       </c>
@@ -2816,9 +2684,7 @@
       <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="11">
-        <v>13</v>
-      </c>
+      <c r="B70" s="11"/>
       <c r="C70" s="11" t="s">
         <v>24</v>
       </c>
@@ -2834,9 +2700,7 @@
       <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="11">
-        <v>13</v>
-      </c>
+      <c r="B71" s="11"/>
       <c r="C71" s="13" t="s">
         <v>79</v>
       </c>
@@ -2851,6 +2715,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/user story & sprints/User Story 1.3.xlsx
+++ b/user story & sprints/User Story 1.3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="91">
   <si>
     <t>S. No</t>
   </si>
@@ -64,16 +64,10 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Create an accounts for physicians</t>
-  </si>
-  <si>
     <t>There must be an administrator (or administrators) for the EMR component who will create the accounts for the physicians. </t>
   </si>
   <si>
     <t>Set up the database</t>
-  </si>
-  <si>
-    <t>Yufan xue</t>
   </si>
   <si>
     <t>In Progress</t>
@@ -192,9 +186,6 @@
     <t>Physician</t>
   </si>
   <si>
-    <t>Add acceess rights for another physician to a patient's EMR</t>
-  </si>
-  <si>
     <t>The physician may choose to give permanent access 
 right or temporary access right. 
 In the latter case, the date and time at which the access right expires must also be indicated.</t>
@@ -203,9 +194,6 @@
     <t>Physician</t>
   </si>
   <si>
-    <t>Delete access rights for another physician to a patient's EMR</t>
-  </si>
-  <si>
     <t>The physician may choose to give permanent access 
 right or temporary access right. 
 In the latter case, the date and time at which the access right expires must also be indicated.</t>
@@ -237,49 +225,115 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>View a prescription</t>
+  </si>
+  <si>
+    <t>JingBo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View patients</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look up Medical Record template, find out what Medical Record look like</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case study: a patient visit a physician, get the transcription from the physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on business logic, build the GUI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test view patient code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test view EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test add EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test search EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test update EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test add transcription code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test view transcription code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Add a new prescription</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>View a prescription</t>
+    <t>Test add prescription code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>View a prescription</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>JingBo</t>
+    <t>Test view prescription code for physician</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>View patients</t>
+    <t>Add acceess rights for another physician to a patient's EMR</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Test add EMR code for physician</t>
-  </si>
-  <si>
-    <t>Test view EMR code for physician</t>
-  </si>
-  <si>
-    <t>Test search EMR code for physician</t>
-  </si>
-  <si>
-    <t>Test add transcription code for physician</t>
-  </si>
-  <si>
-    <t>Test update EMR code for physician</t>
-  </si>
-  <si>
-    <t>Test add acceess rights for another physician 
-to a patient's EMR code for physician</t>
-  </si>
-  <si>
-    <t>Test delete acceess rights for another physician 
-to a patient's EMR code for physician</t>
-  </si>
-  <si>
-    <t>Test Create prescription for a patient code for physician</t>
+    <t>Test Add acceess rights for another physician to a patient's EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete access rights for another physician to a patient's EMR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test delete acceess rights for another physician to a patient's EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create an accounts for physicians</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Create an accounts for physicians EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Delete an accounts for physicians EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yufan xue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Han chen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jingbo,Yufan,Han</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -380,7 +434,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -410,8 +464,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -449,8 +529,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="55">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -466,6 +552,19 @@
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -480,6 +579,19 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -810,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -857,13 +969,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" s="12">
         <v>42041</v>
@@ -872,10 +984,10 @@
         <v>42045</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
@@ -883,13 +995,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="12">
         <v>42045</v>
@@ -898,10 +1010,10 @@
         <v>42050</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -909,13 +1021,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -927,199 +1039,199 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="78.75" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="47.25" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="31.5" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="31.5" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="31.5" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="78.75" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="78.75" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28">
@@ -1130,36 +1242,36 @@
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="6"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
@@ -1526,22 +1638,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71:H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
@@ -1574,1142 +1686,1715 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
-        <v>16</v>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="D2" s="12">
-        <v>42035</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+        <v>42036</v>
+      </c>
+      <c r="E2" s="12">
+        <v>42037</v>
+      </c>
+      <c r="F2" s="12">
+        <v>42037</v>
+      </c>
       <c r="G2" s="11" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="12">
+        <v>42037</v>
+      </c>
+      <c r="E3" s="12">
+        <v>42038</v>
+      </c>
+      <c r="F3" s="12">
+        <v>42038</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="H3" s="11" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="12">
+        <v>42038</v>
+      </c>
+      <c r="E4" s="12">
+        <v>42044</v>
+      </c>
+      <c r="F4" s="12">
+        <v>42044</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="H4" s="11" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
       <c r="C7" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
       <c r="C8" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12">
-        <v>42035</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
       <c r="C10" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
       <c r="C11" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
       <c r="C12" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
       <c r="C13" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
       <c r="C14" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
       <c r="C15" s="11" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
       <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="12">
-        <v>42035</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
       <c r="C17" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11">
+        <v>3</v>
+      </c>
       <c r="C18" s="11" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11">
+        <v>4</v>
+      </c>
       <c r="C19" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
       <c r="C20" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="11">
+        <v>4</v>
+      </c>
       <c r="C21" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="11">
+        <v>4</v>
+      </c>
       <c r="C22" s="11" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="11">
+        <v>4</v>
+      </c>
       <c r="C23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="12">
-        <v>42035</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D23" s="12"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="11">
+        <v>4</v>
+      </c>
       <c r="C24" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="11">
+        <v>4</v>
+      </c>
       <c r="C25" s="11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="11">
+        <v>5</v>
+      </c>
       <c r="C26" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="11">
+        <v>5</v>
+      </c>
       <c r="C27" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="11">
+        <v>5</v>
+      </c>
       <c r="C28" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="11">
+        <v>5</v>
+      </c>
       <c r="C29" s="11" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="11">
+        <v>5</v>
+      </c>
       <c r="C30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="12">
-        <v>42035</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D30" s="12"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="11">
+        <v>5</v>
+      </c>
       <c r="C31" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="11">
+        <v>5</v>
+      </c>
       <c r="C32" s="11" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="11">
+        <v>6</v>
+      </c>
       <c r="C33" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="11">
+        <v>6</v>
+      </c>
       <c r="C34" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="11">
+        <v>6</v>
+      </c>
       <c r="C35" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="11">
+        <v>6</v>
+      </c>
       <c r="C36" s="11" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="11">
+        <v>6</v>
+      </c>
       <c r="C37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="12">
-        <v>42035</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D37" s="12"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="11">
+        <v>6</v>
+      </c>
       <c r="C38" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="11">
+        <v>6</v>
+      </c>
       <c r="C39" s="11" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="11">
+        <v>7</v>
+      </c>
       <c r="C40" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="11">
+        <v>7</v>
+      </c>
       <c r="C41" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="11">
+        <v>7</v>
+      </c>
       <c r="C42" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="11">
+        <v>7</v>
+      </c>
       <c r="C43" s="11" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="11">
+        <v>7</v>
+      </c>
       <c r="C44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="12">
-        <v>42035</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="11">
+        <v>7</v>
+      </c>
       <c r="C45" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="11"/>
+      <c r="B46" s="11">
+        <v>7</v>
+      </c>
       <c r="C46" s="11" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="11">
+        <v>8</v>
+      </c>
       <c r="C47" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="11">
+        <v>8</v>
+      </c>
       <c r="C48" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="11">
+        <v>8</v>
+      </c>
       <c r="C49" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="31.5" customHeight="1">
       <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="13" t="s">
-        <v>77</v>
+      <c r="B50" s="11">
+        <v>8</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="11">
+        <v>8</v>
+      </c>
       <c r="C51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="12">
-        <v>42035</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D51" s="12"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="11">
+        <v>8</v>
+      </c>
       <c r="C52" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="11"/>
+      <c r="B53" s="11">
+        <v>8</v>
+      </c>
       <c r="C53" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="11"/>
+      <c r="B54" s="11">
+        <v>9</v>
+      </c>
       <c r="C54" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="11">
+        <v>9</v>
+      </c>
       <c r="C55" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="11">
+        <v>9</v>
+      </c>
       <c r="C56" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="31.5" customHeight="1">
       <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="13" t="s">
-        <v>78</v>
+      <c r="B57" s="11">
+        <v>9</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="11">
+        <v>9</v>
+      </c>
       <c r="C58" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="12">
-        <v>42035</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D58" s="12"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="11">
+        <v>9</v>
+      </c>
       <c r="C59" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="11">
+        <v>9</v>
+      </c>
       <c r="C60" s="11" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="11"/>
+      <c r="B61" s="11">
+        <v>10</v>
+      </c>
       <c r="C61" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="11">
+        <v>10</v>
+      </c>
       <c r="C62" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="11">
+        <v>10</v>
+      </c>
       <c r="C63" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="31.5" customHeight="1">
       <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13" t="s">
-        <v>79</v>
+      <c r="B64" s="11">
+        <v>10</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="31.5" customHeight="1">
       <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="11"/>
+      <c r="B65" s="11">
+        <v>10</v>
+      </c>
       <c r="C65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="12">
-        <v>42035</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D65" s="12"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="31.5" customHeight="1">
       <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="11">
+        <v>10</v>
+      </c>
       <c r="C66" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="31.5" customHeight="1">
       <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="11">
+        <v>10</v>
+      </c>
       <c r="C67" s="11" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="31.5" customHeight="1">
       <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="11">
+        <v>11</v>
+      </c>
       <c r="C68" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="31.5" customHeight="1">
       <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="11">
+        <v>11</v>
+      </c>
       <c r="C69" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="31.5" customHeight="1">
       <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="11">
+        <v>11</v>
+      </c>
       <c r="C70" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="31.5" customHeight="1">
       <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13" t="s">
-        <v>79</v>
+      <c r="B71" s="11">
+        <v>11</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11">
+        <v>11</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11">
+        <v>11</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11">
+        <v>11</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="16">
+        <v>12</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="16">
+        <v>12</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="16">
+        <v>12</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="16">
+        <v>12</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="16">
+        <v>12</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="16">
+        <v>12</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="16">
+        <v>12</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="16">
+        <v>13</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+      <c r="B83" s="16">
+        <v>13</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="16">
+        <v>13</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+      <c r="B85" s="16">
+        <v>13</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="16">
+        <v>13</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+      <c r="B87" s="16">
+        <v>13</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="16">
+        <v>13</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="16">
+        <v>14</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="16">
+        <v>14</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" customHeight="1">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+      <c r="B91" s="16">
+        <v>14</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1">
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+      <c r="B92" s="16">
+        <v>14</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+      <c r="B93" s="16">
+        <v>14</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+      <c r="B94" s="16">
+        <v>14</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+      <c r="B95" s="16">
+        <v>14</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+      <c r="B96" s="16">
+        <v>15</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+      <c r="B97" s="16">
+        <v>15</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+      <c r="B98" s="16">
+        <v>15</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+      <c r="B99" s="16">
+        <v>15</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" customHeight="1">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+      <c r="B100" s="16">
+        <v>15</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" customHeight="1">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+      <c r="B101" s="16">
+        <v>15</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" customHeight="1">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+      <c r="B102" s="16">
+        <v>15</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/user story & sprints/User Story 1.3.xlsx
+++ b/user story & sprints/User Story 1.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="100">
   <si>
     <t>S. No</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Set up the database</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Set up web interface</t>
@@ -114,9 +111,6 @@
   <si>
     <t>physician can access the system and 
 perform admin related tasks</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Physician</t>
@@ -228,111 +222,154 @@
     <t>View a prescription</t>
   </si>
   <si>
+    <t>View patients</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look up Medical Record template, find out what Medical Record look like</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case study: a patient visit a physician, get the transcription from the physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on business logic, build the GUI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test view patient code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test view EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test add EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test search EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test update EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test add transcription code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test view transcription code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add a new prescription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test add prescription code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View a prescription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test view prescription code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add acceess rights for another physician to a patient's EMR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Add acceess rights for another physician to a patient's EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete access rights for another physician to a patient's EMR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test delete acceess rights for another physician to a patient's EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create an accounts for physicians</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Create an accounts for physicians EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Delete an accounts for physicians EMR code for physician</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yufan xue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Han chen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jingbo,Yufan,Han</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yufan Xue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yufan xue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Han chen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jingbo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Progressing</t>
+  </si>
+  <si>
+    <t>In Progressing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yufan Xue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Progressing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Han Chen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>JingBo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>View patients</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look up Medical Record template, find out what Medical Record look like</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case study: a patient visit a physician, get the transcription from the physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Based on business logic, build the GUI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test view patient code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test view EMR code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test add EMR code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test search EMR code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test update EMR code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test add transcription code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test view transcription code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add a new prescription</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test add prescription code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>View a prescription</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test view prescription code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add acceess rights for another physician to a patient's EMR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Add acceess rights for another physician to a patient's EMR code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete access rights for another physician to a patient's EMR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test delete acceess rights for another physician to a patient's EMR code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create an accounts for physicians</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Create an accounts for physicians EMR code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Delete an accounts for physicians EMR code for physician</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finished</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yufan xue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Han chen</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jingbo,Yufan,Han</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -434,8 +471,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -536,7 +603,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="85">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -565,6 +632,21 @@
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -592,6 +674,21 @@
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -922,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -969,13 +1066,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="12">
         <v>42041</v>
@@ -984,10 +1081,10 @@
         <v>42045</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
@@ -995,13 +1092,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="12">
         <v>42045</v>
@@ -1010,10 +1107,10 @@
         <v>42050</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1021,37 +1118,45 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="E4" s="12">
+        <v>42051</v>
+      </c>
+      <c r="F4" s="12">
+        <v>42055</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="75">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60">
@@ -1059,19 +1164,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1079,19 +1184,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
@@ -1099,19 +1204,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1119,19 +1224,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1139,19 +1244,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1159,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1179,19 +1284,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60">
@@ -1199,19 +1304,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60">
@@ -1219,19 +1324,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28">
@@ -1242,7 +1347,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
@@ -1251,7 +1356,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28">
@@ -1259,19 +1364,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
@@ -1638,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71:H101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1649,9 +1754,9 @@
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -1690,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="12">
         <v>42036</v>
@@ -1702,10 +1807,10 @@
         <v>42037</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -1716,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="12">
         <v>42037</v>
@@ -1728,10 +1833,10 @@
         <v>42038</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
@@ -1742,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="12">
         <v>42038</v>
@@ -1754,1647 +1859,1777 @@
         <v>42044</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="12">
+        <v>42045</v>
+      </c>
+      <c r="E6" s="12">
+        <v>42045</v>
+      </c>
+      <c r="F6" s="12">
+        <v>42045</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="H6" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="12">
+        <v>42045</v>
+      </c>
+      <c r="E7" s="12">
+        <v>42048</v>
+      </c>
+      <c r="F7" s="12">
+        <v>42048</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="H7" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="12">
+        <v>42045</v>
+      </c>
+      <c r="E8" s="12">
+        <v>42048</v>
+      </c>
+      <c r="F8" s="12">
+        <v>42048</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="H8" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="11">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="12">
+        <v>42045</v>
+      </c>
+      <c r="E9" s="12">
+        <v>42048</v>
+      </c>
+      <c r="F9" s="12">
+        <v>42048</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="H9" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="11">
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="12">
+        <v>42045</v>
+      </c>
+      <c r="E10" s="12">
+        <v>42049</v>
+      </c>
+      <c r="F10" s="12">
+        <v>42049</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="H10" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11">
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="D11" s="12">
+        <v>42045</v>
+      </c>
+      <c r="E11" s="12">
+        <v>42050</v>
+      </c>
+      <c r="F11" s="12">
+        <v>42050</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="H11" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="12">
+        <v>42050</v>
+      </c>
+      <c r="E12" s="12">
+        <v>42050</v>
+      </c>
+      <c r="F12" s="12">
+        <v>42050</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="11">
         <v>3</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="D14" s="12">
+        <v>42051</v>
+      </c>
+      <c r="E14" s="12">
+        <v>42051</v>
+      </c>
+      <c r="F14" s="12">
+        <v>42051</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="H14" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="11">
         <v>3</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D15" s="12">
+        <v>42051</v>
+      </c>
+      <c r="E15" s="12">
+        <v>42053</v>
+      </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="11">
         <v>3</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="12">
+        <v>42052</v>
+      </c>
+      <c r="E16" s="12">
+        <v>42054</v>
+      </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="11">
         <v>3</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="12">
+        <v>42052</v>
+      </c>
+      <c r="E17" s="12">
+        <v>42054</v>
+      </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="H17" s="11" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="11">
         <v>3</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D18" s="12">
+        <v>42052</v>
+      </c>
+      <c r="E18" s="12">
+        <v>42054</v>
+      </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="H18" s="11" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="D19" s="12">
+        <v>42055</v>
+      </c>
+      <c r="E19" s="12">
+        <v>42055</v>
+      </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="H19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="D20" s="12">
+        <v>42055</v>
+      </c>
+      <c r="E20" s="12">
+        <v>42055</v>
+      </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="H20" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="11">
         <v>4</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="11">
         <v>4</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="11">
         <v>4</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="11">
         <v>4</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="12"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="11">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="11">
         <v>5</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="11">
         <v>5</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="11">
         <v>5</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="11">
         <v>5</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D33" s="12"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="11">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="11">
         <v>6</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="11">
         <v>6</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="11">
         <v>6</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="11">
         <v>6</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="11">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D40" s="12"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="11">
         <v>7</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="11">
         <v>7</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="11">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="11">
         <v>7</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="11">
         <v>7</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D47" s="12"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="31.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="11">
         <v>8</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" s="11">
         <v>8</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="11">
         <v>8</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="31.5" customHeight="1">
       <c r="A53" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="11">
         <v>8</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D54" s="12"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="31.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" s="11">
         <v>9</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="11">
         <v>9</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" s="11">
         <v>9</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="31.5" customHeight="1">
       <c r="A60" s="11">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" s="11">
         <v>9</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D61" s="12"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="31.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" s="11">
         <v>10</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="31.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" s="11">
         <v>10</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="31.5" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" s="11">
         <v>10</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="31.5" customHeight="1">
       <c r="A67" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" s="11">
         <v>10</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="31.5" customHeight="1">
       <c r="A68" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D68" s="12"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="31.5" customHeight="1">
       <c r="A69" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="31.5" customHeight="1">
       <c r="A70" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="31.5" customHeight="1">
       <c r="A71" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" s="11">
         <v>11</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="31.5" customHeight="1">
       <c r="A72" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" s="11">
         <v>11</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
       <c r="H72" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="31.5" customHeight="1">
       <c r="A73" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="11">
         <v>11</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
       <c r="H73" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="31.5" customHeight="1">
       <c r="A74" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="11">
         <v>11</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>79</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
       <c r="H74" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1">
       <c r="A75" s="11">
-        <v>74</v>
-      </c>
-      <c r="B75" s="16">
-        <v>12</v>
+        <v>71</v>
+      </c>
+      <c r="B75" s="11">
+        <v>11</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1">
       <c r="A76" s="11">
-        <v>75</v>
-      </c>
-      <c r="B76" s="16">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="B76" s="11">
+        <v>11</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1">
       <c r="A77" s="11">
+        <v>73</v>
+      </c>
+      <c r="B77" s="11">
+        <v>11</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="16">
-        <v>12</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="H77" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1">
       <c r="A78" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B78" s="16">
         <v>12</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1">
       <c r="A79" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79" s="16">
         <v>12</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1">
       <c r="A80" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" s="16">
         <v>12</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1">
       <c r="A81" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B81" s="16">
         <v>12</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1">
       <c r="A82" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B82" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1">
       <c r="A83" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B83" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1">
       <c r="A84" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B84" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1">
       <c r="A85" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B85" s="16">
         <v>13</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1">
       <c r="A86" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B86" s="16">
         <v>13</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1">
       <c r="A87" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87" s="16">
         <v>13</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1">
       <c r="A88" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B88" s="16">
         <v>13</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1">
       <c r="A89" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B89" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1">
       <c r="A90" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B90" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1">
       <c r="A91" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B91" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1">
       <c r="A92" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B92" s="16">
         <v>14</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1">
       <c r="A93" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B93" s="16">
         <v>14</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" customHeight="1">
       <c r="A94" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B94" s="16">
         <v>14</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1">
       <c r="A95" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B95" s="16">
         <v>14</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1">
       <c r="A96" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B96" s="16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15" customHeight="1">
       <c r="A97" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" s="16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" customHeight="1">
       <c r="A98" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B98" s="16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" customHeight="1">
       <c r="A99" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99" s="16">
         <v>15</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" customHeight="1">
       <c r="A100" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B100" s="16">
         <v>15</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15" customHeight="1">
       <c r="A101" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B101" s="16">
         <v>15</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1">
       <c r="A102" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B102" s="16">
         <v>15</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" customHeight="1">
+      <c r="A103" s="11">
+        <v>99</v>
+      </c>
+      <c r="B103" s="16">
+        <v>15</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" customHeight="1">
+      <c r="A104" s="11">
+        <v>100</v>
+      </c>
+      <c r="B104" s="16">
+        <v>15</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" customHeight="1">
+      <c r="A105" s="11">
+        <v>101</v>
+      </c>
+      <c r="B105" s="16">
+        <v>15</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
